--- a/data/trans_dic/P28C_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>18,08%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,97%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>19,03%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,19%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>18,18%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>16,53%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>19,69%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31,46%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,62%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>18,56%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>18,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,65; 35,67</t>
+          <t>27,34; 35,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,4; 22,66</t>
+          <t>15,1; 22,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 18,72</t>
+          <t>11,06; 17,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,17; 21,08</t>
+          <t>9,5; 15,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,35; 34,41</t>
+          <t>15,26; 21,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,34; 20,8</t>
+          <t>14,19; 20,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,92; 21,55</t>
+          <t>28,1; 35,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,41; 22,03</t>
+          <t>15,28; 20,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,49; 33,76</t>
+          <t>16,09; 21,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 20,4</t>
+          <t>16,59; 23,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,92</t>
+          <t>16,4; 22,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 20,61</t>
+          <t>17,13; 22,67</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>28,83; 34,14</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16,05; 20,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,62; 18,82</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>13,73; 18,61</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 20,76</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>16,53; 20,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>18,96%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29,32%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>17,19%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>16,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>29,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>17,23%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,34%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18,75%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 32,12</t>
+          <t>23,43; 33,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 20,12</t>
+          <t>13,46; 20,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 16,15</t>
+          <t>10,61; 16,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 28,05</t>
+          <t>11,18; 19,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>27,72; 36,33</t>
+          <t>12,83; 26,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 21,61</t>
+          <t>15,21; 28,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,92; 18,88</t>
+          <t>27,63; 35,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 25,03</t>
+          <t>14,49; 21,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,63</t>
+          <t>12,67; 18,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,9; 19,83</t>
+          <t>15,97; 23,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 16,71</t>
+          <t>14,47; 24,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,13; 23,52</t>
+          <t>12,01; 22,96</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,36; 32,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 19,75</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,34; 16,68</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,52; 20,02</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 24,35</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 23,43</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,92%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,78%</t>
+          <t>26,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>13,46%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,26%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,45%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,28%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>27,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,03%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>17,0%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,25; 40,71</t>
+          <t>19,96; 43,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 25,96</t>
+          <t>10,07; 26,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 18,52</t>
+          <t>7,8; 19,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6,68; 20,08</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18,79; 34,21</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 19,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,73; 28,99</t>
+          <t>18,87; 34,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>8,69; 19,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 28,37</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15,32; 31,51</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>20,46; 34,63</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,55; 19,47</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13,16; 21,71</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21,52; 34,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,54; 21,13</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>13,11; 21,59</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 22,99</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>13,11%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>18,19%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30,65%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>19,02%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29,9%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>17,34%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,72%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>30,35%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>16,64%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>18,6%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,07; 32,17</t>
+          <t>26,96; 33,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,89</t>
+          <t>15,17; 20,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,06</t>
+          <t>11,48; 15,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 21,45</t>
+          <t>11,09; 16,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 33,2</t>
+          <t>15,8; 21,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,46; 19,52</t>
+          <t>15,75; 21,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 19,85</t>
+          <t>28,52; 33,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,68; 21,4</t>
+          <t>15,6; 19,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,13; 32,03</t>
+          <t>16,07; 19,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 19,01</t>
+          <t>17,78; 22,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 17,36</t>
+          <t>16,68; 21,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,82; 20,46</t>
+          <t>16,75; 21,53</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 32,46</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>15,93; 19,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>14,3; 17,32</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,91; 18,53</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 20,54</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,98; 20,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,38%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>405.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>508694</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>303392</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>232551</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>193551</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>41193</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38993</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>564662</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>323356</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>339347</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>350068</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44374</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45772</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1073356</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>626748</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>571898</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>543619</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>85567</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>84765</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>444241; 577023</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>247034; 375368</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>181550; 291835</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>152777; 246225</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34780; 48223</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31721; 46351</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>502210; 627347</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>274515; 372589</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>289698; 386952</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>290585; 411843</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>38237; 51551</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39812; 52694</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>983764; 1164931</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>550898; 698816</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>503215; 647520</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>461476; 625321</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>76421; 95709</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>75357; 94934</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>379249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>228373</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>181874</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>200295</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13334</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14822</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>438317</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>243161</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>211124</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>260784</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12203</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11187</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>817566</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>471534</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>392998</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>461080</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>25537</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>26009</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>317652; 456427</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>184913; 282972</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>145360; 229238</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>151577; 266103</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9213; 18943</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10950; 20700</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>382451; 496392</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>197673; 292972</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>173676; 253831</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>214222; 316420</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9315; 15791</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7911; 15126</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>722170; 899239</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>411442; 540710</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>338270; 457093</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>391720; 539816</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>20743; 33166</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>20905; 32306</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>120130</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>66952</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53323</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>48430</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>106440</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>54461</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>88504</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>90658</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>226570</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>121413</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>141827</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>139089</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>83364; 181804</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>41816; 111887</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>32999; 81522</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>27448; 82478</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76877; 140760</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35180; 78585</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>64774; 116263</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>62396; 128356</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>177550; 288510</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>86386; 173235</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>109188; 179781</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>102579; 188106</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>761.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>381.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1008073</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>598717</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>467748</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>442276</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>54527</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53815</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1109418</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>620978</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>638975</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>701511</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56577</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56959</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2117491</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1219695</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1106723</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1143787</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>111104</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>110774</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>916122; 1132231</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>519449; 690908</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>394338; 546971</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>374112; 541638</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47352; 63727</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46553; 63252</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1020748; 1199355</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>556299; 690434</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>575228; 706592</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>622284; 801061</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>49612; 64578</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>49958; 64223</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1985928; 2264678</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1113211; 1330514</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1002724; 1214753</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1024868; 1274011</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>101163; 122640</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>100845; 123207</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
